--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed1/result_data_KNN.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.65</v>
+        <v>8.347</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.368</v>
+        <v>-11.699</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>7.078</v>
+        <v>5.848999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,13 +530,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.536</v>
+        <v>5.733</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.302</v>
+        <v>-7.536</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.048</v>
+        <v>-8.122000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.358</v>
+        <v>-10.827</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.359999999999999</v>
+        <v>-7.593000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.358</v>
+        <v>-10.956</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.068</v>
+        <v>-7.772</v>
       </c>
     </row>
     <row r="14">
@@ -656,13 +656,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.656000000000001</v>
+        <v>5.324</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.018000000000001</v>
+        <v>-8.052</v>
       </c>
     </row>
     <row r="17">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.558</v>
+        <v>-13.474</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.83</v>
+        <v>-12.588</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.884</v>
+        <v>-11.949</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -712,10 +712,10 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.484</v>
+        <v>8.914999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.546</v>
+        <v>-12.243</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.34</v>
+        <v>-12.635</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.843999999999999</v>
+        <v>5.196000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.87</v>
+        <v>5.213</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.99</v>
+        <v>-7.289999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.656</v>
+        <v>-13.298</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.768</v>
+        <v>7.084999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.034</v>
+        <v>-12.278</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.116</v>
+        <v>9.236000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.056</v>
+        <v>-12.09</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.91</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="41">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.83</v>
+        <v>-12.02</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.056</v>
+        <v>-12.364</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1037,7 +1037,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.48</v>
+        <v>-12.182</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.572</v>
+        <v>-7.513000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>4.604000000000001</v>
+        <v>5.447000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.558</v>
+        <v>-13.123</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.944</v>
+        <v>-11.844</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.673999999999999</v>
+        <v>5.399</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.862</v>
+        <v>5.411</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.794</v>
+        <v>5.263</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.76</v>
+        <v>4.878000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,7 +1300,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.272</v>
+        <v>5.494</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.184</v>
+        <v>-10.956</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.358</v>
+        <v>-11.151</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.932</v>
+        <v>5.511</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>5.172000000000001</v>
+        <v>5.884</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.145999999999999</v>
+        <v>9.186999999999999</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.422</v>
+        <v>-12.288</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.336</v>
+        <v>-13.148</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.13</v>
+        <v>-13.278</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.522</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="90">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.209999999999999</v>
+        <v>-7.486</v>
       </c>
     </row>
     <row r="92">
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.674</v>
+        <v>4.891</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.578</v>
+        <v>-11.828</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>4.286</v>
+        <v>6.026999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
